--- a/examples/words-with-notes.xlsx
+++ b/examples/words-with-notes.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="113">
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعدى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجاوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مكتبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أخرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أخيرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حزمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصفوفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استثن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما لم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعترض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استثني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باستثناء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استثناء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكد من</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكد من أن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عالمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجمالي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارجع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المحصلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النتيجة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حضر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استحضر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استدع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عائلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صنف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فصيلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طالما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بينما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطبع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اظهر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعطي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطأ</t>
+  </si>
   <si>
     <t xml:space="preserve">with</t>
   </si>
@@ -53,12 +231,6 @@
     <t xml:space="preserve">قائمة</t>
   </si>
   <si>
-    <t xml:space="preserve">matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصفوفة</t>
-  </si>
-  <si>
     <t xml:space="preserve">else</t>
   </si>
   <si>
@@ -74,67 +246,82 @@
     <t xml:space="preserve">تجاهل</t>
   </si>
   <si>
-    <t xml:space="preserve">تجاوز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعدى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عائلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صنف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فصيلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طالما</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بينما</t>
-  </si>
-  <si>
-    <t xml:space="preserve">except</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استثن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ما لم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعترض</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استثني</t>
-  </si>
-  <si>
-    <t xml:space="preserve">باستثناء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استثناء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إلا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أخيرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مكتبة</t>
+    <t xml:space="preserve">dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سجل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دليل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فهرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أزل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اهمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعريف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لكل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">و</t>
   </si>
   <si>
     <t xml:space="preserve">as</t>
@@ -149,186 +336,12 @@
     <t xml:space="preserve">كانما</t>
   </si>
   <si>
-    <t xml:space="preserve">del</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أزل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اهمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">توقف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اطبع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اكتب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اظهر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعطي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">انتج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تأكد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تأكد من</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تأكد من أن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عالمي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اجمالي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دالة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ارجع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المحصلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النتيجة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أخرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حزمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ديوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
     <t xml:space="preserve">if</t>
   </si>
   <si>
     <t xml:space="preserve">اذا</t>
   </si>
   <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعريف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لكل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ليس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جرب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سجل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دليل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فهرس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قاموس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نفذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نوع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خطأ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حضر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استحضر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استدع</t>
-  </si>
-  <si>
     <t xml:space="preserve">in</t>
   </si>
   <si>
@@ -348,18 +361,6 @@
   </si>
   <si>
     <t xml:space="preserve">أو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">و</t>
   </si>
 </sst>
 </file>
@@ -415,14 +416,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,10 +474,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,7 +482,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,11 +569,11 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -581,16 +582,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="3" t="n">
         <f aca="false">LEN(A1)</f>
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="n">
         <f aca="false">LEN(B1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,13 +601,13 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <f aca="false">LEN(A2)</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <f aca="false">LEN(B2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,121 +620,120 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <f aca="false">LEN(A3)</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="n">
         <f aca="false">LEN(B3)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <f aca="false">LEN(A4)</f>
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <f aca="false">LEN(B4)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <f aca="false">LEN(A5)</f>
-        <v>4</v>
-      </c>
-      <c r="J5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <f aca="false">LEN(B5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <f aca="false">LEN(A6)</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <f aca="false">LEN(B6)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <f aca="false">LEN(A7)</f>
-        <v>5</v>
-      </c>
-      <c r="J7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="n">
         <f aca="false">LEN(B7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <f aca="false">LEN(A8)</f>
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,333 +749,338 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <f aca="false">LEN(A9)</f>
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <f aca="false">LEN(A10)</f>
         <v>6</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="3" t="n">
         <f aca="false">LEN(B10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <f aca="false">LEN(A11)</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <f aca="false">LEN(B11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4" t="n">
-        <f aca="false">LEN(A11)</f>
-        <v>7</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <f aca="false">LEN(B11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="3" t="n">
         <f aca="false">LEN(A12)</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <f aca="false">LEN(B12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="I13" s="3" t="n">
+        <f aca="false">LEN(A13)</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <f aca="false">LEN(B13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">LEN(A13)</f>
-        <v>3</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">LEN(B13)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <f aca="false">LEN(A14)</f>
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="3" t="n">
         <f aca="false">LEN(B14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="3" t="n">
         <f aca="false">LEN(A15)</f>
         <v>5</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="3" t="n">
         <f aca="false">LEN(B15)</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false">LEN(A16)</f>
         <v>5</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="3" t="n">
         <f aca="false">LEN(B16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="3" t="n">
         <f aca="false">LEN(A17)</f>
-        <v>6</v>
-      </c>
-      <c r="J17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <f aca="false">LEN(B17)</f>
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="I18" s="3" t="n">
         <f aca="false">LEN(A18)</f>
-        <v>6</v>
-      </c>
-      <c r="J18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="n">
         <f aca="false">LEN(B18)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <f aca="false">LEN(A19)</f>
-        <v>6</v>
-      </c>
-      <c r="J19" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3" t="n">
         <f aca="false">LEN(B19)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <f aca="false">LEN(A20)</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <f aca="false">LEN(B20)</f>
         <v>6</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <f aca="false">LEN(B20)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <f aca="false">LEN(A21)</f>
-        <v>7</v>
-      </c>
-      <c r="J21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="n">
         <f aca="false">LEN(B21)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="I22" s="3" t="n">
         <f aca="false">LEN(A22)</f>
-        <v>7</v>
-      </c>
-      <c r="J22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="n">
         <f aca="false">LEN(B22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
         <f aca="false">LEN(A23)</f>
-        <v>8</v>
-      </c>
-      <c r="J23" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="n">
         <f aca="false">LEN(B23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="n">
         <f aca="false">LEN(A24)</f>
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="n">
         <f aca="false">LEN(B24)</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <f aca="false">LEN(A25)</f>
-        <v>3</v>
-      </c>
-      <c r="J25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3" t="n">
         <f aca="false">LEN(B25)</f>
         <v>3</v>
       </c>
@@ -1087,11 +1092,11 @@
       <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <f aca="false">LEN(A26)</f>
-        <v>3</v>
-      </c>
-      <c r="J26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="n">
         <f aca="false">LEN(B26)</f>
         <v>3</v>
       </c>
@@ -1103,13 +1108,13 @@
       <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <f aca="false">LEN(A27)</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="n">
         <f aca="false">LEN(B27)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,39 +1124,36 @@
       <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="3" t="n">
         <f aca="false">LEN(A28)</f>
         <v>3</v>
       </c>
-      <c r="J28" s="4" t="n">
+      <c r="J28" s="3" t="n">
         <f aca="false">LEN(B28)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="3" t="n">
         <f aca="false">LEN(A29)</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="n">
         <f aca="false">LEN(B29)</f>
         <v>3</v>
       </c>
@@ -1163,11 +1165,11 @@
       <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="3" t="n">
         <f aca="false">LEN(A30)</f>
-        <v>4</v>
-      </c>
-      <c r="J30" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3" t="n">
         <f aca="false">LEN(B30)</f>
         <v>3</v>
       </c>
@@ -1179,11 +1181,11 @@
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="3" t="n">
         <f aca="false">LEN(A31)</f>
-        <v>4</v>
-      </c>
-      <c r="J31" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3" t="n">
         <f aca="false">LEN(B31)</f>
         <v>3</v>
       </c>
@@ -1195,52 +1197,51 @@
       <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="3" t="n">
         <f aca="false">LEN(A32)</f>
-        <v>5</v>
-      </c>
-      <c r="J32" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="n">
         <f aca="false">LEN(B32)</f>
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="3" t="n">
         <f aca="false">LEN(A33)</f>
-        <v>6</v>
-      </c>
-      <c r="J33" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="n">
         <f aca="false">LEN(B33)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="3" t="n">
         <f aca="false">LEN(A34)</f>
         <v>2</v>
       </c>
-      <c r="J34" s="4" t="n">
+      <c r="J34" s="3" t="n">
         <f aca="false">LEN(B34)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,46 +1251,46 @@
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="I35" s="3" t="n">
         <f aca="false">LEN(A35)</f>
         <v>2</v>
       </c>
-      <c r="J35" s="4" t="n">
+      <c r="J35" s="3" t="n">
         <f aca="false">LEN(B35)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="I36" s="3" t="n">
         <f aca="false">LEN(A36)</f>
         <v>2</v>
       </c>
-      <c r="J36" s="4" t="n">
+      <c r="J36" s="3" t="n">
         <f aca="false">LEN(B36)</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="3" t="n">
         <f aca="false">LEN(A37)</f>
-        <v>4</v>
-      </c>
-      <c r="J37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="n">
         <f aca="false">LEN(B37)</f>
         <v>2</v>
       </c>
@@ -1301,13 +1302,13 @@
       <c r="B38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="I38" s="3" t="n">
         <f aca="false">LEN(A38)</f>
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="n">
         <f aca="false">LEN(B38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1330,338 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="A1:B38 A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1360,42 +1689,42 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,130 +1737,130 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
+      <c r="A14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,10 +1889,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1920,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1600,10 +1929,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,18 +1945,18 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/examples/words-with-notes.xlsx
+++ b/examples/words-with-notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t xml:space="preserve">continue</t>
   </si>
@@ -213,154 +213,157 @@
     <t xml:space="preserve">elif</t>
   </si>
   <si>
+    <t xml:space="preserve">اواذا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قائمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اخيرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اخرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجاهل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سجل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دليل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فهرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أزل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اهمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعريف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لكل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">و</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كأنها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اذا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">في</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أو</t>
+  </si>
+  <si>
     <t xml:space="preserve">او اذا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سرد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قائمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اخيرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اخرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تجاهل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سجل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دليل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فهرس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قاموس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نفذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نوع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del</t>
-  </si>
-  <si>
-    <t xml:space="preserve">احذف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أزل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اهمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعريف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لكل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ليس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جرب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">و</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كانه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كأنها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كانما</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اذا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">في</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أو</t>
   </si>
 </sst>
 </file>
@@ -569,11 +572,11 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -968,7 +971,7 @@
       </c>
       <c r="J20" s="3" t="n">
         <f aca="false">LEN(B20)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,10 +1333,10 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="A1:B38 A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1348,7 +1351,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,11 +1660,11 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1820,7 +1823,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
